--- a/ImidPilot/data/ImidLabData2.xlsx
+++ b/ImidPilot/data/ImidLabData2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <workbookPr date1904="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaalger/AlgerProjects/ImidPilot/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B14D15-223A-8D40-8866-332F82A15C37}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="10920" yWindow="1240" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImidLabData2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Treatment</t>
   </si>
@@ -36,310 +42,130 @@
     <t>C</t>
   </si>
   <si>
-    <t>C-1</t>
-  </si>
-  <si>
-    <t>C-2</t>
-  </si>
-  <si>
-    <t>C-3</t>
-  </si>
-  <si>
-    <t>C-4</t>
-  </si>
-  <si>
-    <t>C-5</t>
-  </si>
-  <si>
-    <t>C-6</t>
-  </si>
-  <si>
-    <t>C-7</t>
-  </si>
-  <si>
-    <t>C-8</t>
-  </si>
-  <si>
-    <t>C-9</t>
-  </si>
-  <si>
-    <t>C-10</t>
-  </si>
-  <si>
-    <t>C-11</t>
-  </si>
-  <si>
-    <t>C-12</t>
-  </si>
-  <si>
-    <t>C-13</t>
-  </si>
-  <si>
-    <t>C-14</t>
-  </si>
-  <si>
-    <t>C-15</t>
-  </si>
-  <si>
-    <t>C-16</t>
-  </si>
-  <si>
-    <t>C-17</t>
-  </si>
-  <si>
-    <t>C-18</t>
-  </si>
-  <si>
-    <t>C-19</t>
-  </si>
-  <si>
-    <t>C-20</t>
-  </si>
-  <si>
-    <t>0.1-1</t>
-  </si>
-  <si>
-    <t>0.1-2</t>
-  </si>
-  <si>
-    <t>0.1-3</t>
-  </si>
-  <si>
-    <t>0.1-4</t>
-  </si>
-  <si>
-    <t>0.1-5</t>
-  </si>
-  <si>
-    <t>0.1-6</t>
-  </si>
-  <si>
-    <t>0.1-7</t>
-  </si>
-  <si>
-    <t>0.1-8</t>
-  </si>
-  <si>
-    <t>0.1-9</t>
-  </si>
-  <si>
-    <t>0.1-10</t>
-  </si>
-  <si>
-    <t>0.1-11</t>
-  </si>
-  <si>
-    <t>0.1-12</t>
-  </si>
-  <si>
-    <t>0.1-13</t>
-  </si>
-  <si>
-    <t>0.1-14</t>
-  </si>
-  <si>
-    <t>0.1-15</t>
-  </si>
-  <si>
-    <t>0.1-16</t>
-  </si>
-  <si>
-    <t>0.1-17</t>
-  </si>
-  <si>
-    <t>0.1-18</t>
-  </si>
-  <si>
-    <t>0.1-19</t>
-  </si>
-  <si>
-    <t>0.1-20</t>
-  </si>
-  <si>
-    <t>20-1</t>
-  </si>
-  <si>
-    <t>20-2</t>
-  </si>
-  <si>
-    <t>20-3</t>
-  </si>
-  <si>
-    <t>20-4</t>
-  </si>
-  <si>
-    <t>20-5</t>
-  </si>
-  <si>
-    <t>20-6</t>
-  </si>
-  <si>
-    <t>20-7</t>
-  </si>
-  <si>
-    <t>20-8</t>
-  </si>
-  <si>
-    <t>20-9</t>
-  </si>
-  <si>
-    <t>20-10</t>
-  </si>
-  <si>
-    <t>20-11</t>
-  </si>
-  <si>
-    <t>20-12</t>
-  </si>
-  <si>
-    <t>20-13</t>
-  </si>
-  <si>
-    <t>20-14</t>
-  </si>
-  <si>
-    <t>20-15</t>
-  </si>
-  <si>
-    <t>20-16</t>
-  </si>
-  <si>
-    <t>20-17</t>
-  </si>
-  <si>
-    <t>20-18</t>
-  </si>
-  <si>
-    <t>20-19</t>
-  </si>
-  <si>
-    <t>20-20</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>1-9</t>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>1-11</t>
-  </si>
-  <si>
-    <t>1-12</t>
-  </si>
-  <si>
-    <t>1-13</t>
-  </si>
-  <si>
-    <t>1-14</t>
-  </si>
-  <si>
-    <t>1-15</t>
-  </si>
-  <si>
-    <t>1-16</t>
-  </si>
-  <si>
-    <t>1-17</t>
-  </si>
-  <si>
-    <t>1-18</t>
-  </si>
-  <si>
-    <t>1-19</t>
-  </si>
-  <si>
-    <t>1-20</t>
-  </si>
-  <si>
-    <t>10-1</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>10-5</t>
-  </si>
-  <si>
-    <t>10-6</t>
-  </si>
-  <si>
-    <t>10-7</t>
-  </si>
-  <si>
-    <t>10-8</t>
-  </si>
-  <si>
-    <t>10-9</t>
-  </si>
-  <si>
-    <t>10-10</t>
-  </si>
-  <si>
-    <t>10-11</t>
-  </si>
-  <si>
-    <t>10-12</t>
-  </si>
-  <si>
-    <t>10-13</t>
-  </si>
-  <si>
-    <t>10-14</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>10-16</t>
-  </si>
-  <si>
-    <t>10-17</t>
-  </si>
-  <si>
-    <t>10-18</t>
-  </si>
-  <si>
-    <t>10-19</t>
-  </si>
-  <si>
-    <t>10-20</t>
+    <t>C.1</t>
+  </si>
+  <si>
+    <t>C.2</t>
+  </si>
+  <si>
+    <t>C.3</t>
+  </si>
+  <si>
+    <t>C.4</t>
+  </si>
+  <si>
+    <t>C.5</t>
+  </si>
+  <si>
+    <t>C.6</t>
+  </si>
+  <si>
+    <t>C.7</t>
+  </si>
+  <si>
+    <t>C.8</t>
+  </si>
+  <si>
+    <t>C.9</t>
+  </si>
+  <si>
+    <t>C.10</t>
+  </si>
+  <si>
+    <t>C.11</t>
+  </si>
+  <si>
+    <t>C.12</t>
+  </si>
+  <si>
+    <t>C.13</t>
+  </si>
+  <si>
+    <t>C.14</t>
+  </si>
+  <si>
+    <t>C.15</t>
+  </si>
+  <si>
+    <t>C.16</t>
+  </si>
+  <si>
+    <t>C.17</t>
+  </si>
+  <si>
+    <t>C.18</t>
+  </si>
+  <si>
+    <t>C.19</t>
+  </si>
+  <si>
+    <t>C.20</t>
+  </si>
+  <si>
+    <t>0.1.1</t>
+  </si>
+  <si>
+    <t>0.1.2</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>0.1.4</t>
+  </si>
+  <si>
+    <t>0.1.5</t>
+  </si>
+  <si>
+    <t>0.1.6</t>
+  </si>
+  <si>
+    <t>0.1.7</t>
+  </si>
+  <si>
+    <t>0.1.8</t>
+  </si>
+  <si>
+    <t>0.1.9</t>
+  </si>
+  <si>
+    <t>0.1.10</t>
+  </si>
+  <si>
+    <t>0.1.11</t>
+  </si>
+  <si>
+    <t>0.1.12</t>
+  </si>
+  <si>
+    <t>0.1.13</t>
+  </si>
+  <si>
+    <t>0.1.14</t>
+  </si>
+  <si>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>0.1.16</t>
+  </si>
+  <si>
+    <t>0.1.17</t>
+  </si>
+  <si>
+    <t>0.1.18</t>
+  </si>
+  <si>
+    <t>0.1.19</t>
+  </si>
+  <si>
+    <t>0.1.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1191,26 +1017,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -1518,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -1532,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -1546,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -1560,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.1</v>
       </c>
@@ -1574,7 +1400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -1588,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -1602,7 +1428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -1616,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -1630,7 +1456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.1</v>
       </c>
@@ -1644,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.1</v>
       </c>
@@ -1658,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -1672,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.1</v>
       </c>
@@ -1686,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.1</v>
       </c>
@@ -1700,7 +1526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.1</v>
       </c>
@@ -1714,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.1</v>
       </c>
@@ -1728,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.1</v>
       </c>
@@ -1742,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.1</v>
       </c>
@@ -1756,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.1</v>
       </c>
@@ -1770,7 +1596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.1</v>
       </c>
@@ -1784,841 +1610,841 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
+      <c r="C42" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>66</v>
+      <c r="C43" s="1">
+        <v>1.2</v>
       </c>
       <c r="D43">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
+      <c r="C44" s="1">
+        <v>1.3</v>
       </c>
       <c r="D44">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>68</v>
+      <c r="C45" s="1">
+        <v>1.4</v>
       </c>
       <c r="D45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>69</v>
+      <c r="C46" s="1">
+        <v>1.5</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>70</v>
+      <c r="C47" s="1">
+        <v>1.6</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48">
         <v>7</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>71</v>
+      <c r="C48" s="1">
+        <v>1.7</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49">
         <v>8</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>72</v>
+      <c r="C49" s="1">
+        <v>1.8</v>
       </c>
       <c r="D49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50">
         <v>9</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>73</v>
+      <c r="C50" s="1">
+        <v>1.9</v>
       </c>
       <c r="D50">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>74</v>
+      <c r="C51" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D51">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52">
         <v>11</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>75</v>
+      <c r="C52" s="1">
+        <v>1.1100000000000001</v>
       </c>
       <c r="D52">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
         <v>12</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>76</v>
+      <c r="C53" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="D53">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54">
         <v>13</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>77</v>
+      <c r="C54" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="D54">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55">
         <v>14</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>78</v>
+      <c r="C55" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="D55">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56">
         <v>15</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>79</v>
+      <c r="C56" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57">
         <v>16</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>80</v>
+      <c r="C57" s="1">
+        <v>1.1599999999999999</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58">
         <v>17</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>81</v>
+      <c r="C58" s="1">
+        <v>1.17</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59">
         <v>18</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>82</v>
+      <c r="C59" s="1">
+        <v>1.18</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60">
         <v>19</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>83</v>
+      <c r="C60" s="1">
+        <v>1.19</v>
       </c>
       <c r="D60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61">
         <v>20</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>84</v>
+      <c r="C61" s="1">
+        <v>1.2</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>85</v>
+      <c r="C62" s="1">
+        <v>10.1</v>
       </c>
       <c r="D62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>86</v>
+      <c r="C63" s="1">
+        <v>10.199999999999999</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>87</v>
+      <c r="C64" s="1">
+        <v>10.3</v>
       </c>
       <c r="D64">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>88</v>
+      <c r="C65" s="1">
+        <v>10.4</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>89</v>
+      <c r="C66" s="1">
+        <v>10.5</v>
       </c>
       <c r="D66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>90</v>
+      <c r="C67" s="1">
+        <v>10.6</v>
       </c>
       <c r="D67">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10</v>
       </c>
       <c r="B68">
         <v>7</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>91</v>
+      <c r="C68" s="1">
+        <v>10.7</v>
       </c>
       <c r="D68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10</v>
       </c>
       <c r="B69">
         <v>8</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>92</v>
+      <c r="C69" s="1">
+        <v>10.8</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10</v>
       </c>
       <c r="B70">
         <v>9</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>93</v>
+      <c r="C70" s="1">
+        <v>10.9</v>
       </c>
       <c r="D70">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
       <c r="B71">
         <v>10</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>94</v>
+      <c r="C71" s="1">
+        <v>10.1</v>
       </c>
       <c r="D71">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10</v>
       </c>
       <c r="B72">
         <v>11</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>95</v>
+      <c r="C72" s="1">
+        <v>10.11</v>
       </c>
       <c r="D72">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10</v>
       </c>
       <c r="B73">
         <v>12</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>96</v>
+      <c r="C73" s="1">
+        <v>10.119999999999999</v>
       </c>
       <c r="D73">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10</v>
       </c>
       <c r="B74">
         <v>13</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>97</v>
+      <c r="C74" s="1">
+        <v>10.130000000000001</v>
       </c>
       <c r="D74">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10</v>
       </c>
       <c r="B75">
         <v>14</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>98</v>
+      <c r="C75" s="1">
+        <v>10.14</v>
       </c>
       <c r="D75">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10</v>
       </c>
       <c r="B76">
         <v>15</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>99</v>
+      <c r="C76" s="1">
+        <v>10.15</v>
       </c>
       <c r="D76">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10</v>
       </c>
       <c r="B77">
         <v>16</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>100</v>
+      <c r="C77" s="1">
+        <v>10.16</v>
       </c>
       <c r="D77">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10</v>
       </c>
       <c r="B78">
         <v>17</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>101</v>
+      <c r="C78" s="1">
+        <v>10.17</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10</v>
       </c>
       <c r="B79">
         <v>18</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>102</v>
+      <c r="C79" s="1">
+        <v>10.18</v>
       </c>
       <c r="D79">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10</v>
       </c>
       <c r="B80">
         <v>19</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>103</v>
+      <c r="C80" s="1">
+        <v>10.19</v>
       </c>
       <c r="D80">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10</v>
       </c>
       <c r="B81">
         <v>20</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>104</v>
+      <c r="C81" s="1">
+        <v>10.199999999999999</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>20</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>45</v>
+      <c r="C82" s="1">
+        <v>20.100000000000001</v>
       </c>
       <c r="D82">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>20</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>46</v>
+      <c r="C83" s="1">
+        <v>20.2</v>
       </c>
       <c r="D83">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>20</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>47</v>
+      <c r="C84" s="1">
+        <v>20.3</v>
       </c>
       <c r="D84">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>20</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>48</v>
+      <c r="C85" s="1">
+        <v>20.399999999999999</v>
       </c>
       <c r="D85">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>20</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>49</v>
+      <c r="C86" s="1">
+        <v>20.5</v>
       </c>
       <c r="D86">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>20</v>
       </c>
       <c r="B87">
         <v>6</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>50</v>
+      <c r="C87" s="1">
+        <v>20.6</v>
       </c>
       <c r="D87">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>20</v>
       </c>
       <c r="B88">
         <v>7</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>51</v>
+      <c r="C88" s="1">
+        <v>20.7</v>
       </c>
       <c r="D88">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>20</v>
       </c>
       <c r="B89">
         <v>8</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>52</v>
+      <c r="C89" s="1">
+        <v>20.8</v>
       </c>
       <c r="D89">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>20</v>
       </c>
       <c r="B90">
         <v>9</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>53</v>
+      <c r="C90" s="1">
+        <v>20.9</v>
       </c>
       <c r="D90">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>20</v>
       </c>
       <c r="B91">
         <v>10</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>54</v>
+      <c r="C91" s="1">
+        <v>20.100000000000001</v>
       </c>
       <c r="D91">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>20</v>
       </c>
       <c r="B92">
         <v>11</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>55</v>
+      <c r="C92" s="1">
+        <v>20.11</v>
       </c>
       <c r="D92">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>20</v>
       </c>
       <c r="B93">
         <v>12</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>56</v>
+      <c r="C93" s="1">
+        <v>20.12</v>
       </c>
       <c r="D93">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>20</v>
       </c>
       <c r="B94">
         <v>13</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>57</v>
+      <c r="C94" s="1">
+        <v>20.13</v>
       </c>
       <c r="D94">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>20</v>
       </c>
       <c r="B95">
         <v>14</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>58</v>
+      <c r="C95" s="1">
+        <v>20.14</v>
       </c>
       <c r="D95">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>20</v>
       </c>
       <c r="B96">
         <v>15</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>59</v>
+      <c r="C96" s="1">
+        <v>20.149999999999999</v>
       </c>
       <c r="D96">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>20</v>
       </c>
       <c r="B97">
         <v>16</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>60</v>
+      <c r="C97" s="1">
+        <v>20.16</v>
       </c>
       <c r="D97">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>20</v>
       </c>
       <c r="B98">
         <v>17</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>61</v>
+      <c r="C98" s="1">
+        <v>20.170000000000002</v>
       </c>
       <c r="D98">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>20</v>
       </c>
       <c r="B99">
         <v>18</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>62</v>
+      <c r="C99" s="1">
+        <v>20.18</v>
       </c>
       <c r="D99">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>20</v>
       </c>
       <c r="B100">
         <v>19</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>63</v>
+      <c r="C100" s="1">
+        <v>20.190000000000001</v>
       </c>
       <c r="D100">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>20</v>
       </c>
       <c r="B101">
         <v>20</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>64</v>
+      <c r="C101" s="1">
+        <v>20.2</v>
       </c>
       <c r="D101">
         <v>8</v>
